--- a/EXAMPLEIIO_product_list.xlsx
+++ b/EXAMPLEIIO_product_list.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak922\Dropbox\Project Exeter Macro CE\Input Output table UK\MacroModel code\hypExa\USIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak922\Dropbox\Project Exeter Macro CE\Input Output table UK\MacroModel code\hypExa\USIO\Exiobase_code_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18A1D0A-5414-4EA0-944A-A30448CC8ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD60BF-63D5-47B3-8905-A3DF9BA30C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="-3000" windowWidth="14490" windowHeight="19580" firstSheet="1" xr2:uid="{56BF270E-C4C9-41D6-9E93-345946597508}"/>
+    <workbookView xWindow="115080" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{56BF270E-C4C9-41D6-9E93-345946597508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="this is only for plot order" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="aggregate data" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="aggregate data" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="257">
   <si>
     <t>productbyproductNUMBER (in our Matrix)</t>
   </si>
@@ -768,6 +769,50 @@
   </si>
   <si>
     <t>CE sector</t>
+  </si>
+  <si>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture of cement, lime, plaster and articles of concrete, cement and plaster </t>
+  </si>
+  <si>
+    <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
+  </si>
+  <si>
+    <t>CPA_C25</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor vehicles, trailers and semi-trailers      </t>
+  </si>
+  <si>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Imputed rents of owner-occupied dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real estate activities on a fee or contract basis       </t>
+  </si>
+  <si>
+    <t>Total domestic
+output of 
+products at basic prices</t>
+  </si>
+  <si>
+    <t>Total imports of goods and services</t>
+  </si>
+  <si>
+    <t>added on 25/02/2025</t>
+  </si>
+  <si>
+    <t>added on 19/03/2025</t>
+  </si>
+  <si>
+    <t>toatl final demand</t>
   </si>
 </sst>
 </file>
@@ -903,7 +948,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -926,6 +971,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2 2" xfId="1" xr:uid="{3C3B26F8-E396-4E3E-915C-F6623789CD08}"/>
@@ -1243,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3373CA9C-3CA5-4C20-A932-1A171711981C}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
@@ -2639,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013A1B83-3963-41EB-ADB7-C10877F5519F}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3822,11 +3868,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF50260B-A8BD-4498-BDEB-1779C3F368B5}">
+  <dimension ref="A1:C105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="63.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74C0F35-06BD-4F72-967E-F8559B750C63}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4057,6 +5276,51 @@
         <v>26</v>
       </c>
     </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <f>45931-34064</f>
+        <v>11867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
